--- a/static/work-tracker.xlsx
+++ b/static/work-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17D5C1B-F0AD-4663-99FE-ABC27B66D992}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A55FEE4-EC6F-4CEA-8DD3-F7D895D517C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
@@ -1811,55 +1811,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,7 +7160,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7279,7 +7279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
@@ -8446,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="L2" s="1"/>
       <c r="Z2" s="12">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="12">
         <v>35</v>
@@ -8591,7 +8591,7 @@
       <c r="L3" s="1"/>
       <c r="Z3" s="18">
         <f>Z2</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="19">
         <f>AA2</f>
@@ -8639,7 +8639,7 @@
       <c r="L4" s="1"/>
       <c r="Z4" s="18">
         <f t="shared" ref="Z4:AA29" si="2">Z3</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA4" s="19">
         <f t="shared" si="2"/>
@@ -8687,7 +8687,7 @@
       <c r="L5" s="1"/>
       <c r="Z5" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="19">
         <f t="shared" si="2"/>
@@ -8735,7 +8735,7 @@
       <c r="L6" s="1"/>
       <c r="Z6" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="19">
         <f t="shared" si="2"/>
@@ -8783,7 +8783,7 @@
       <c r="L7" s="1"/>
       <c r="Z7" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="19">
         <f t="shared" si="2"/>
@@ -8831,7 +8831,7 @@
       <c r="L8" s="1"/>
       <c r="Z8" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="19">
         <f t="shared" si="2"/>
@@ -8879,7 +8879,7 @@
       <c r="L9" s="1"/>
       <c r="Z9" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="19">
         <f t="shared" si="2"/>
@@ -8927,7 +8927,7 @@
       <c r="L10" s="1"/>
       <c r="Z10" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA10" s="19">
         <f t="shared" si="2"/>
@@ -8975,7 +8975,7 @@
       <c r="L11" s="1"/>
       <c r="Z11" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA11" s="19">
         <f t="shared" si="2"/>
@@ -9023,7 +9023,7 @@
       <c r="L12" s="1"/>
       <c r="Z12" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA12" s="19">
         <f t="shared" si="2"/>
@@ -9071,7 +9071,7 @@
       <c r="L13" s="1"/>
       <c r="Z13" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA13" s="19">
         <f t="shared" si="2"/>
@@ -9119,7 +9119,7 @@
       <c r="L14" s="1"/>
       <c r="Z14" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA14" s="19">
         <f t="shared" si="2"/>
@@ -9167,7 +9167,7 @@
       <c r="L15" s="1"/>
       <c r="Z15" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA15" s="19">
         <f t="shared" si="2"/>
@@ -9215,7 +9215,7 @@
       <c r="L16" s="1"/>
       <c r="Z16" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="2"/>
@@ -9263,7 +9263,7 @@
       <c r="L17" s="1"/>
       <c r="Z17" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA17" s="19">
         <f t="shared" si="2"/>
@@ -9311,7 +9311,7 @@
       <c r="L18" s="1"/>
       <c r="Z18" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA18" s="19">
         <f t="shared" si="2"/>
@@ -9359,7 +9359,7 @@
       <c r="L19" s="1"/>
       <c r="Z19" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="19">
         <f t="shared" si="2"/>
@@ -9373,7 +9373,7 @@
       <c r="L20" s="1"/>
       <c r="Z20" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="2"/>
@@ -9385,7 +9385,7 @@
       <c r="L21" s="1"/>
       <c r="Z21" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA21" s="19">
         <f t="shared" si="2"/>
@@ -9405,7 +9405,7 @@
       <c r="L22" s="1"/>
       <c r="Z22" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA22" s="19">
         <f t="shared" si="2"/>
@@ -9417,7 +9417,7 @@
       <c r="L23" s="1"/>
       <c r="Z23" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA23" s="19">
         <f t="shared" si="2"/>
@@ -9428,7 +9428,7 @@
       <c r="L24" s="1"/>
       <c r="Z24" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="19">
         <f t="shared" si="2"/>
@@ -9439,7 +9439,7 @@
       <c r="L25" s="1"/>
       <c r="Z25" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA25" s="19">
         <f t="shared" si="2"/>
@@ -9450,7 +9450,7 @@
       <c r="L26" s="1"/>
       <c r="Z26" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA26" s="19">
         <f t="shared" si="2"/>
@@ -9461,7 +9461,7 @@
       <c r="L27" s="1"/>
       <c r="Z27" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA27" s="19">
         <f t="shared" si="2"/>
@@ -9472,7 +9472,7 @@
       <c r="L28" s="1"/>
       <c r="Z28" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA28" s="19">
         <f t="shared" si="2"/>
@@ -9483,7 +9483,7 @@
       <c r="L29" s="1"/>
       <c r="Z29" s="18">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA29" s="19">
         <f t="shared" si="2"/>
@@ -9504,7 +9504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/static/work-tracker.xlsx
+++ b/static/work-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A55FEE4-EC6F-4CEA-8DD3-F7D895D517C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99272F-0526-4456-A936-21C65D1031C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Monday</t>
   </si>
@@ -92,16 +92,10 @@
     <t>Step 8</t>
   </si>
   <si>
-    <t>At the end of your work week, add your total daily hours worked for each day of that week in the appropriate cells.</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
     <t>You can annotate the plot with comments as you wish to explain potential variations in hours worked by selecting a text box, and then typing CTR+C and CTR+V.</t>
-  </si>
-  <si>
-    <t>You can also edit the summary box (white background) with your current number of hours worked and objective.</t>
   </si>
   <si>
     <t>You can change your weekly objective (the green and red lines) by changing the top numbers on the right of the graph (the correct cells are highlighted in grey).</t>
@@ -116,22 +110,13 @@
     <t>Date (Fall 2019)</t>
   </si>
   <si>
-    <t>Step 9</t>
-  </si>
-  <si>
     <t>You can also delete existing annotations on the graph if they do not apply to you.</t>
-  </si>
-  <si>
-    <t>Finally, you can erase the existing example data (the sample hours worked, not the rest) before you start tracking your own hours.</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
     <t>Minimum</t>
-  </si>
-  <si>
-    <t>Step 10</t>
   </si>
   <si>
     <t xml:space="preserve">To copy a sheet, right-click on it, then click "Move or Copy...", check the box "Create a copy", select "(move to end)", then OK. </t>
@@ -159,6 +144,24 @@
   </si>
   <si>
     <t>Date (Winter 2020)</t>
+  </si>
+  <si>
+    <t>https://cppastudents.medium.com/time-management-the-importance-of-self-monitoring-c9dfff241af1</t>
+  </si>
+  <si>
+    <t>Please see the full Medium blog explaining the scientific basis behind self-monitoring and the complete rationale behind this system:</t>
+  </si>
+  <si>
+    <t>After getting the idea, you can erase the existing example data (the sample hours worked, not the rest) before you start tracking your own hours.</t>
+  </si>
+  <si>
+    <t>You can edit the summary box (white background) with your current number of hours worked and objective.</t>
+  </si>
+  <si>
+    <t>Blog post:</t>
+  </si>
+  <si>
+    <t>At the end of your work week, add your total daily hours worked for each day of that week in the appropriate cells (Monday to Sunday).</t>
   </si>
 </sst>
 </file>
@@ -7157,10 +7160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,7 +7173,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7178,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7186,28 +7189,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -7215,63 +7215,76 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>35</v>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{314D6972-3250-4FEF-B5CD-2CCACECC16A6}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{314D6972-3250-4FEF-B5CD-2CCACECC16A6}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{7E55B120-D59B-4470-BCE1-3264B9806DA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7279,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,10 +7312,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -7335,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -8446,8 +8459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8466,10 +8479,10 @@
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -8502,7 +8515,7 @@
         <v>9</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -9504,7 +9517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -9524,10 +9537,10 @@
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -9560,7 +9573,7 @@
         <v>9</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -10218,25 +10231,25 @@
         <v>Week 18 (Aug 31)</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" s="13">
         <f t="shared" si="0"/>
@@ -10271,7 +10284,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>

--- a/static/work-tracker.xlsx
+++ b/static/work-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99272F-0526-4456-A936-21C65D1031C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93C02B-6E03-4AA8-87E2-B4D8B526B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="3" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Monday</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>At the end of your work week, add your total daily hours worked for each day of that week in the appropriate cells (Monday to Sunday).</t>
+  </si>
+  <si>
+    <t>Objective: 40 hrs/week (5 day x 8 hrs)</t>
   </si>
 </sst>
 </file>
@@ -5120,7 +5123,7 @@
       <cdr:x>0.63767</cdr:x>
       <cdr:y>0.80921</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Fall 2019'!$W$43">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -5153,31 +5156,17 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 38.75 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{5C4B9791-3BAC-4824-99C4-05005AA4E0DE}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>Average: 38.75 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -5719,7 +5708,7 @@
       <cdr:x>0.56913</cdr:x>
       <cdr:y>0.73377</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Winter 2020'!$W$43">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -5752,31 +5741,17 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 28.06 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{F31EDC80-FAF2-4CF9-BA31-0B6B1413961A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>Average: 28.06 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -6632,7 +6607,7 @@
       <cdr:x>0.5193</cdr:x>
       <cdr:y>0.72272</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Summer 2020'!$W$43">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -6665,31 +6640,17 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 39.78 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{4C15B898-325F-4C4E-A3A0-6A7982899CDA}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>Average: 39.78 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -7162,7 +7123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7292,8 +7253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,14 +8308,32 @@
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 38.75 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="W43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, W38:W39)</f>
+        <v>Average: 38.75 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -8457,10 +8436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9506,6 +9485,24 @@
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
     </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 28.06 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="23:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="W43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, W38:W39)</f>
+        <v>Average: 28.06 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9515,10 +9512,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10394,6 +10391,24 @@
         <v>35</v>
       </c>
     </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 39.78 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="23:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="W43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, W38:W39)</f>
+        <v>Average: 39.78 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/static/work-tracker.xlsx
+++ b/static/work-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\GitHub\starter-academic\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A93C02B-6E03-4AA8-87E2-B4D8B526B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D45684-EAFD-4BA6-8F14-137A48799502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="3" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>After getting the idea, you can erase the existing example data (the sample hours worked, not the rest) before you start tracking your own hours.</t>
   </si>
   <si>
-    <t>You can edit the summary box (white background) with your current number of hours worked and objective.</t>
-  </si>
-  <si>
     <t>Blog post:</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Objective: 40 hrs/week (5 day x 8 hrs)</t>
+  </si>
+  <si>
+    <t>The summary box (white background) will update automatically with your current number of hours worked and objective.</t>
   </si>
 </sst>
 </file>
@@ -5164,6 +5164,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 38.75 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
           </a:fld>
@@ -5749,6 +5750,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 28.06 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
           </a:fld>
@@ -6648,6 +6650,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 39.78 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)</a:t>
           </a:fld>
@@ -7123,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7158,7 +7161,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7195,7 +7198,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7214,7 +7217,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -7253,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
@@ -8316,7 +8319,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="30" x14ac:dyDescent="0.25">
@@ -8438,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -9493,7 +9496,7 @@
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="23:23" ht="30" x14ac:dyDescent="0.25">
@@ -9514,7 +9517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -10399,10 +10402,10 @@
     </row>
     <row r="39" spans="23:23" x14ac:dyDescent="0.25">
       <c r="W39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="23:23" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="23:23" ht="30" x14ac:dyDescent="0.25">
       <c r="W43" s="2" t="str">
         <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, W38:W39)</f>
         <v>Average: 39.78 hrs/week

--- a/static/work-tracker.xlsx
+++ b/static/work-tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\GitHub\starter-academic\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D45684-EAFD-4BA6-8F14-137A48799502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB9A832-450E-4174-9004-3515A13DFC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
@@ -7256,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
@@ -8441,7 +8441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -9517,7 +9517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
